--- a/Memory/Practica2/tables/RANDOM+LS.xlsx
+++ b/Memory/Practica2/tables/RANDOM+LS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>FITNESS</t>
   </si>
@@ -27,36 +27,6 @@
     <t>TIME</t>
   </si>
   <si>
-    <t>PARTITION (0,0)</t>
-  </si>
-  <si>
-    <t>PARTITION (0,1)</t>
-  </si>
-  <si>
-    <t>PARTITION (1,0)</t>
-  </si>
-  <si>
-    <t>PARTITION (1,1)</t>
-  </si>
-  <si>
-    <t>PARTITION (2,0)</t>
-  </si>
-  <si>
-    <t>PARTITION (2,1)</t>
-  </si>
-  <si>
-    <t>PARTITION (3,0)</t>
-  </si>
-  <si>
-    <t>PARTITION (3,1)</t>
-  </si>
-  <si>
-    <t>PARTITION (4,0)</t>
-  </si>
-  <si>
-    <t>PARTITION (4,1)</t>
-  </si>
-  <si>
     <t>MEAN</t>
   </si>
   <si>
@@ -70,6 +40,27 @@
   </si>
   <si>
     <t>SPAMBASE</t>
+  </si>
+  <si>
+    <t>PARTITION 1</t>
+  </si>
+  <si>
+    <t>PARTITION 2</t>
+  </si>
+  <si>
+    <t>PARTITION 3</t>
+  </si>
+  <si>
+    <t>PARTITION 4</t>
+  </si>
+  <si>
+    <t>PARTITION 5</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>RED</t>
   </si>
   <si>
     <t>RANDOM+LS</t>
@@ -115,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -422,11 +413,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -436,12 +529,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -456,23 +543,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,6 +560,42 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N16"/>
+  <dimension ref="B1:Q14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,485 +909,454 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="31"/>
     </row>
-    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
-      <c r="C4" s="26" t="s">
+    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="H4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="L4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="N4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10">
+        <v>79.166700000000006</v>
+      </c>
+      <c r="D5" s="22">
+        <v>83.333299999999994</v>
+      </c>
+      <c r="E5" s="22">
+        <v>75</v>
+      </c>
+      <c r="F5" s="32">
+        <v>3.6433</v>
+      </c>
+      <c r="G5" s="37">
+        <v>83.885499999999993</v>
+      </c>
+      <c r="H5" s="10">
+        <v>90.614000000000004</v>
+      </c>
+      <c r="I5" s="22">
+        <v>91.228099999999998</v>
+      </c>
+      <c r="J5" s="22">
+        <v>90</v>
+      </c>
+      <c r="K5" s="32">
+        <v>8.6326999999999998</v>
+      </c>
+      <c r="L5" s="37">
+        <v>93.022000000000006</v>
+      </c>
+      <c r="M5" s="42">
+        <v>80.863799999999998</v>
+      </c>
+      <c r="N5" s="43">
+        <v>88.043499999999995</v>
+      </c>
+      <c r="O5" s="43">
+        <v>73.684200000000004</v>
+      </c>
+      <c r="P5" s="32">
+        <v>10.436299999999999</v>
+      </c>
+      <c r="Q5" s="37">
+        <v>80.863799999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>77.023799999999994</v>
+      </c>
+      <c r="D6" s="23">
+        <v>85.714299999999994</v>
+      </c>
+      <c r="E6" s="23">
+        <v>68.333299999999994</v>
+      </c>
+      <c r="F6" s="33">
+        <v>3.6764999999999999</v>
+      </c>
+      <c r="G6" s="38">
+        <v>81.154600000000002</v>
+      </c>
+      <c r="H6" s="11">
+        <v>89.298199999999994</v>
+      </c>
+      <c r="I6" s="23">
+        <v>88.596500000000006</v>
+      </c>
+      <c r="J6" s="23">
+        <v>90</v>
+      </c>
+      <c r="K6" s="33">
+        <v>5.4241000000000001</v>
+      </c>
+      <c r="L6" s="38">
+        <v>91.043999999999997</v>
+      </c>
+      <c r="M6" s="44">
+        <v>78.022499999999994</v>
+      </c>
+      <c r="N6" s="45">
+        <v>85.869600000000005</v>
+      </c>
+      <c r="O6" s="45">
+        <v>70.175399999999996</v>
+      </c>
+      <c r="P6" s="33">
+        <v>21.152799999999999</v>
+      </c>
+      <c r="Q6" s="38">
+        <v>80.875799999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11">
+        <v>67.261899999999997</v>
+      </c>
+      <c r="D7" s="23">
+        <v>92.857100000000003</v>
+      </c>
+      <c r="E7" s="23">
+        <v>41.666699999999999</v>
+      </c>
+      <c r="F7" s="33">
+        <v>1.8791</v>
+      </c>
+      <c r="G7" s="38">
+        <v>65.110399999999998</v>
+      </c>
+      <c r="H7" s="11">
+        <v>90.614000000000004</v>
+      </c>
+      <c r="I7" s="23">
+        <v>91.228099999999998</v>
+      </c>
+      <c r="J7" s="23">
+        <v>90</v>
+      </c>
+      <c r="K7" s="33">
+        <v>9.7569999999999997</v>
+      </c>
+      <c r="L7" s="38">
+        <v>93.022000000000006</v>
+      </c>
+      <c r="M7" s="44">
+        <v>81.531300000000002</v>
+      </c>
+      <c r="N7" s="45">
+        <v>85.869600000000005</v>
+      </c>
+      <c r="O7" s="45">
+        <v>77.192999999999998</v>
+      </c>
+      <c r="P7" s="33">
+        <v>24.718800000000002</v>
+      </c>
+      <c r="Q7" s="38">
+        <v>83.569299999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11">
+        <v>80.955299999999994</v>
+      </c>
+      <c r="D8" s="23">
+        <v>90.243899999999996</v>
+      </c>
+      <c r="E8" s="23">
+        <v>71.666700000000006</v>
+      </c>
+      <c r="F8" s="33">
+        <v>3.4493999999999998</v>
+      </c>
+      <c r="G8" s="38">
+        <v>81.941100000000006</v>
+      </c>
+      <c r="H8" s="11">
+        <v>80.263199999999998</v>
+      </c>
+      <c r="I8" s="23">
+        <v>93.8596</v>
+      </c>
+      <c r="J8" s="23">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="K8" s="33">
+        <v>4.8975</v>
+      </c>
+      <c r="L8" s="38">
+        <v>81.3553</v>
+      </c>
+      <c r="M8" s="44">
+        <v>86.670500000000004</v>
+      </c>
+      <c r="N8" s="45">
+        <v>89.130399999999995</v>
+      </c>
+      <c r="O8" s="45">
+        <v>84.210499999999996</v>
+      </c>
+      <c r="P8" s="33">
+        <v>29.747699999999998</v>
+      </c>
+      <c r="Q8" s="38">
+        <v>87.893299999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="19">
+        <v>78.9024</v>
+      </c>
+      <c r="D9" s="24">
+        <v>87.804900000000004</v>
+      </c>
+      <c r="E9" s="24">
+        <v>70</v>
+      </c>
+      <c r="F9" s="34">
+        <v>4.6077000000000004</v>
+      </c>
+      <c r="G9" s="39">
+        <v>81.407200000000003</v>
+      </c>
+      <c r="H9" s="19">
+        <v>84.350999999999999</v>
+      </c>
+      <c r="I9" s="24">
+        <v>92.035399999999996</v>
+      </c>
+      <c r="J9" s="24">
+        <v>76.666700000000006</v>
+      </c>
+      <c r="K9" s="34">
+        <v>7.7362000000000002</v>
+      </c>
+      <c r="L9" s="39">
+        <v>85.153499999999994</v>
+      </c>
+      <c r="M9" s="46">
+        <v>87.213999999999999</v>
+      </c>
+      <c r="N9" s="47">
+        <v>90.217399999999998</v>
+      </c>
+      <c r="O9" s="47">
+        <v>84.210499999999996</v>
+      </c>
+      <c r="P9" s="34">
+        <v>29.860099999999999</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>87.213999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12">
-        <v>85.576899999999995</v>
-      </c>
-      <c r="D5" s="13">
-        <v>93.269199999999998</v>
-      </c>
-      <c r="E5" s="14">
-        <v>2.8231999999999999</v>
-      </c>
-      <c r="F5" s="12">
-        <v>95.422499999999999</v>
-      </c>
-      <c r="G5" s="13">
-        <v>95.789500000000004</v>
-      </c>
-      <c r="H5" s="14">
-        <v>3.9641999999999999</v>
-      </c>
-      <c r="I5" s="12">
-        <v>80.869600000000005</v>
-      </c>
-      <c r="J5" s="13">
-        <v>94.782600000000002</v>
-      </c>
-      <c r="K5" s="14">
-        <v>11.4529</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="C10" s="21">
+        <v>76.662000000000006</v>
+      </c>
+      <c r="D10" s="25">
+        <v>87.990700000000004</v>
+      </c>
+      <c r="E10" s="25">
+        <v>65.333299999999994</v>
+      </c>
+      <c r="F10" s="35">
+        <v>3.4512</v>
+      </c>
+      <c r="G10" s="40">
+        <v>78.699799999999996</v>
+      </c>
+      <c r="H10" s="21">
+        <v>87.028099999999995</v>
+      </c>
+      <c r="I10" s="25">
+        <v>91.389499999999998</v>
+      </c>
+      <c r="J10" s="25">
+        <v>82.666700000000006</v>
+      </c>
+      <c r="K10" s="35">
+        <v>7.2895000000000003</v>
+      </c>
+      <c r="L10" s="40">
+        <v>88.719300000000004</v>
+      </c>
+      <c r="M10" s="48">
+        <v>82.860399999999998</v>
+      </c>
+      <c r="N10" s="49">
+        <v>87.826099999999997</v>
+      </c>
+      <c r="O10" s="49">
+        <v>77.8947</v>
+      </c>
+      <c r="P10" s="35">
+        <v>23.1831</v>
+      </c>
+      <c r="Q10" s="40">
+        <v>84.083200000000005</v>
+      </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+    <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15">
-        <v>84.615399999999994</v>
-      </c>
-      <c r="D6" s="16">
-        <v>89.423100000000005</v>
-      </c>
-      <c r="E6" s="17">
-        <v>2.1021000000000001</v>
-      </c>
-      <c r="F6" s="15">
-        <v>95.087699999999998</v>
-      </c>
-      <c r="G6" s="16">
-        <v>96.126800000000003</v>
-      </c>
-      <c r="H6" s="17">
-        <v>3.9182000000000001</v>
-      </c>
-      <c r="I6" s="15">
-        <v>83.043499999999995</v>
-      </c>
-      <c r="J6" s="16">
-        <v>87.826099999999997</v>
-      </c>
-      <c r="K6" s="17">
-        <v>18.2042</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="C11" s="13">
+        <v>4.8624000000000001</v>
+      </c>
+      <c r="D11" s="26">
+        <v>3.3367</v>
+      </c>
+      <c r="E11" s="26">
+        <v>12.037000000000001</v>
+      </c>
+      <c r="F11" s="36">
+        <v>0.88280000000000003</v>
+      </c>
+      <c r="G11" s="41">
+        <v>6.8617999999999997</v>
+      </c>
+      <c r="H11" s="13">
+        <v>4.0940000000000003</v>
+      </c>
+      <c r="I11" s="26">
+        <v>1.6953</v>
+      </c>
+      <c r="J11" s="26">
+        <v>9.5219000000000005</v>
+      </c>
+      <c r="K11" s="36">
+        <v>1.8597999999999999</v>
+      </c>
+      <c r="L11" s="41">
+        <v>4.6769999999999996</v>
+      </c>
+      <c r="M11" s="50">
+        <v>3.5390999999999999</v>
+      </c>
+      <c r="N11" s="51">
+        <v>1.7391000000000001</v>
+      </c>
+      <c r="O11" s="51">
+        <v>5.6139999999999999</v>
+      </c>
+      <c r="P11" s="36">
+        <v>7.1642999999999999</v>
+      </c>
+      <c r="Q11" s="41">
+        <v>3.0078999999999998</v>
+      </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="15">
-        <v>82.692300000000003</v>
-      </c>
-      <c r="D7" s="16">
-        <v>91.346199999999996</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1.9060999999999999</v>
-      </c>
-      <c r="F7" s="15">
-        <v>94.718299999999999</v>
-      </c>
-      <c r="G7" s="16">
-        <v>97.8947</v>
-      </c>
-      <c r="H7" s="17">
-        <v>6.2130000000000001</v>
-      </c>
-      <c r="I7" s="15">
-        <v>89.130399999999995</v>
-      </c>
-      <c r="J7" s="16">
-        <v>93.912999999999997</v>
-      </c>
-      <c r="K7" s="17">
-        <v>11.1998</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="15">
-        <v>84.615399999999994</v>
-      </c>
-      <c r="D8" s="16">
-        <v>87.5</v>
-      </c>
-      <c r="E8" s="17">
-        <v>2.5421</v>
-      </c>
-      <c r="F8" s="15">
-        <v>96.491200000000006</v>
-      </c>
-      <c r="G8" s="16">
-        <v>96.478899999999996</v>
-      </c>
-      <c r="H8" s="17">
-        <v>3.9072</v>
-      </c>
-      <c r="I8" s="15">
-        <v>85.217399999999998</v>
-      </c>
-      <c r="J8" s="16">
-        <v>90.869600000000005</v>
-      </c>
-      <c r="K8" s="17">
-        <v>16.2349</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="15">
-        <v>86.538499999999999</v>
-      </c>
-      <c r="D9" s="16">
-        <v>87.5</v>
-      </c>
-      <c r="E9" s="17">
-        <v>2.5400999999999998</v>
-      </c>
-      <c r="F9" s="15">
-        <v>95.422499999999999</v>
-      </c>
-      <c r="G9" s="16">
-        <v>96.491200000000006</v>
-      </c>
-      <c r="H9" s="17">
-        <v>5.9802999999999997</v>
-      </c>
-      <c r="I9" s="15">
-        <v>83.912999999999997</v>
-      </c>
-      <c r="J9" s="16">
-        <v>88.695700000000002</v>
-      </c>
-      <c r="K9" s="17">
-        <v>11.5367</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="15">
-        <v>80.769199999999998</v>
-      </c>
-      <c r="D10" s="16">
-        <v>92.307699999999997</v>
-      </c>
-      <c r="E10" s="17">
-        <v>2.1730999999999998</v>
-      </c>
-      <c r="F10" s="15">
-        <v>94.385999999999996</v>
-      </c>
-      <c r="G10" s="16">
-        <v>97.183099999999996</v>
-      </c>
-      <c r="H10" s="17">
-        <v>10.422800000000001</v>
-      </c>
-      <c r="I10" s="15">
-        <v>81.304299999999998</v>
-      </c>
-      <c r="J10" s="16">
-        <v>90.434799999999996</v>
-      </c>
-      <c r="K10" s="17">
-        <v>10.7248</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="15">
-        <v>85.576899999999995</v>
-      </c>
-      <c r="D11" s="16">
-        <v>88.461500000000001</v>
-      </c>
-      <c r="E11" s="17">
-        <v>1.9071</v>
-      </c>
-      <c r="F11" s="15">
-        <v>95.422499999999999</v>
-      </c>
-      <c r="G11" s="16">
-        <v>98.947400000000002</v>
-      </c>
-      <c r="H11" s="17">
-        <v>5.2382999999999997</v>
-      </c>
-      <c r="I11" s="15">
-        <v>77.391300000000001</v>
-      </c>
-      <c r="J11" s="16">
-        <v>91.739099999999993</v>
-      </c>
-      <c r="K11" s="17">
-        <v>15.9139</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="15">
-        <v>88.461500000000001</v>
-      </c>
-      <c r="D12" s="16">
-        <v>88.461500000000001</v>
-      </c>
-      <c r="E12" s="17">
-        <v>2.0851000000000002</v>
-      </c>
-      <c r="F12" s="15">
-        <v>97.8947</v>
-      </c>
-      <c r="G12" s="16">
-        <v>96.478899999999996</v>
-      </c>
-      <c r="H12" s="17">
-        <v>6.1093000000000002</v>
-      </c>
-      <c r="I12" s="15">
-        <v>87.391300000000001</v>
-      </c>
-      <c r="J12" s="16">
-        <v>89.130399999999995</v>
-      </c>
-      <c r="K12" s="17">
-        <v>10.3066</v>
-      </c>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="15">
-        <v>84.615399999999994</v>
-      </c>
-      <c r="D13" s="16">
-        <v>87.5</v>
-      </c>
-      <c r="E13" s="17">
-        <v>1.9951000000000001</v>
-      </c>
-      <c r="F13" s="15">
-        <v>96.126800000000003</v>
-      </c>
-      <c r="G13" s="16">
-        <v>95.438599999999994</v>
-      </c>
-      <c r="H13" s="17">
-        <v>4.7023000000000001</v>
-      </c>
-      <c r="I13" s="15">
-        <v>83.043499999999995</v>
-      </c>
-      <c r="J13" s="16">
-        <v>91.739099999999993</v>
-      </c>
-      <c r="K13" s="17">
-        <v>12.306900000000001</v>
-      </c>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="15">
-        <v>79.807699999999997</v>
-      </c>
-      <c r="D14" s="16">
-        <v>86.538499999999999</v>
-      </c>
-      <c r="E14" s="17">
-        <v>1.9946999999999999</v>
-      </c>
-      <c r="F14" s="15">
-        <v>94.736800000000002</v>
-      </c>
-      <c r="G14" s="16">
-        <v>97.183099999999996</v>
-      </c>
-      <c r="H14" s="17">
-        <v>4.8632999999999997</v>
-      </c>
-      <c r="I14" s="15">
-        <v>83.478300000000004</v>
-      </c>
-      <c r="J14" s="16">
-        <v>90.869600000000005</v>
-      </c>
-      <c r="K14" s="17">
-        <v>12.416499999999999</v>
-      </c>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="18">
-        <v>84.326899999999995</v>
-      </c>
-      <c r="D15" s="19">
-        <v>89.230800000000002</v>
-      </c>
-      <c r="E15" s="20">
-        <v>2.2069000000000001</v>
-      </c>
-      <c r="F15" s="18">
-        <v>95.570899999999995</v>
-      </c>
-      <c r="G15" s="19">
-        <v>96.801199999999994</v>
-      </c>
-      <c r="H15" s="20">
-        <v>5.5319000000000003</v>
-      </c>
-      <c r="I15" s="18">
-        <v>83.478300000000004</v>
-      </c>
-      <c r="J15" s="19">
-        <v>91</v>
-      </c>
-      <c r="K15" s="20">
-        <v>13.0297</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="23">
-        <v>2.4723000000000002</v>
-      </c>
-      <c r="D16" s="24">
-        <v>2.1842999999999999</v>
-      </c>
-      <c r="E16" s="25">
-        <v>0.30009999999999998</v>
-      </c>
-      <c r="F16" s="23">
-        <v>0.98429999999999995</v>
-      </c>
-      <c r="G16" s="24">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="H16" s="25">
-        <v>1.8395999999999999</v>
-      </c>
-      <c r="I16" s="23">
-        <v>3.1535000000000002</v>
-      </c>
-      <c r="J16" s="24">
-        <v>2.0764</v>
-      </c>
-      <c r="K16" s="25">
-        <v>2.5895999999999999</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
